--- a/Pneuma_V7/Assets/GameData/Excel/Pneuma.xlsx
+++ b/Pneuma_V7/Assets/GameData/Excel/Pneuma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Downloads\1129\Pneuma_V6\Assets\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\Pneuma\Pneuma_V7\Assets\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF5530-7AD0-4029-8E8C-00FB78F162FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4435B1E-6DAE-487D-992B-645C94D04C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9E6B3C6E-CF32-4248-955D-9C3AD26C9A33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>努瑪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>妳好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,54 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功就像懷孕，大家都會恭喜你，但沒人知道你被搞了幾次才成功！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你覺得自己累得跟狗一樣，那你真的是誤會了，因為狗都沒你這麼累。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>騎在白馬上的不一定是王子，也可能是唐三藏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>別再說世界上幾十億人，也遇不到一個對的人，就算是選擇題只有四個選項，你還不是一樣照樣選不對。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>當全世界都不要你的時候，請記得還有我，我也不要你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前我以為錢可以買到一切，後來才發現沒有辦法，因為我錢不夠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>別動不動就把錯誤丟給時間去處理，時間才懶得理你這個爛攤子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜歡就去告白呀，說不定人家也等著拒絕你呢！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果擺錯地方，鑽石也會被當石頭。但是石頭不管擺哪裡，都還是石頭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活中那些討厭的人表面上風光，其實私底下也過得如魚得水喔！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男女之間一定有純友誼，因為每一個我認識的女生，都說最多只能跟我當朋友。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你要好好愛自己，因為沒有人愛你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hint</t>
   </si>
   <si>
@@ -180,14 +128,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Meow</t>
+    <t>噢你哪裡來的，從來沒在這區看過你耶</t>
+  </si>
+  <si>
+    <t>…@@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>不過你看起來很可愛，小心蟲子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>又遇見你了你在跟蹤我嗎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小可愛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這邊有個小走道，我都鑽不過去看來，也許你可以。</t>
+  </si>
+  <si>
+    <r>
+      <t>你有感覺什麼變化嗎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>你要不要試試看按按滑鼠左鍵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看來你把門打開了，但我還有點事情我們可能還會再相見。</t>
+  </si>
+  <si>
+    <r>
+      <t>香菇和上面的光球有關，你要不要試試看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +234,27 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,8 +279,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD29A1-EEB1-4262-827E-B94FD04BA3E8}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -566,45 +628,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -612,14 +674,14 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -630,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -641,28 +703,28 @@
       <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,28 +732,28 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,362 +761,188 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1088,42 +976,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1141,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1152,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1170,18 +1058,18 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1199,18 +1087,18 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1228,18 +1116,18 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1257,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1268,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1286,18 +1174,18 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1315,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pneuma_V7/Assets/GameData/Excel/Pneuma.xlsx
+++ b/Pneuma_V7/Assets/GameData/Excel/Pneuma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\Pneuma\Pneuma_V7\Assets\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4435B1E-6DAE-487D-992B-645C94D04C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C540A-B618-4A21-83D8-813E8E44CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9E6B3C6E-CF32-4248-955D-9C3AD26C9A33}"/>
+    <workbookView xWindow="-12910" yWindow="520" windowWidth="13020" windowHeight="10460" xr2:uid="{9E6B3C6E-CF32-4248-955D-9C3AD26C9A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue_Ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>努瑪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>看來你拿到光球了，我們快來試試看吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD29A1-EEB1-4262-827E-B94FD04BA3E8}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -805,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -834,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -863,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -898,10 +902,10 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -927,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -936,12 +940,41 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Pneuma_V7/Assets/GameData/Excel/Pneuma.xlsx
+++ b/Pneuma_V7/Assets/GameData/Excel/Pneuma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\Pneuma\Pneuma_V7\Assets\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2C540A-B618-4A21-83D8-813E8E44CB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42062CE4-2E14-477C-BA50-FDEE71116B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12910" yWindow="520" windowWidth="13020" windowHeight="10460" xr2:uid="{9E6B3C6E-CF32-4248-955D-9C3AD26C9A33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9E6B3C6E-CF32-4248-955D-9C3AD26C9A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue_Ch1" sheetId="1" r:id="rId1"/>
@@ -150,6 +150,48 @@
   </si>
   <si>
     <r>
+      <t>你有感覺什麼變化嗎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>你要不要試試看按按滑鼠左鍵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看來你把門打開了，但我還有點事情我們可能還會再相見。</t>
+  </si>
+  <si>
+    <r>
+      <t>香菇和上面的光球有關，你要不要試試看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>看來你拿到光球了，我們快來試試看吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>又遇見你了你在跟蹤我嗎</t>
     </r>
     <r>
@@ -169,53 +211,12 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>小可愛</t>
+      <t>小可愛。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>這邊有個小走道，我都鑽不過去看來，也許你可以。</t>
-  </si>
-  <si>
-    <r>
-      <t>你有感覺什麼變化嗎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>你要不要試試看按按滑鼠左鍵。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看來你把門打開了，但我還有點事情我們可能還會再相見。</t>
-  </si>
-  <si>
-    <r>
-      <t>香菇和上面的光球有關，你要不要試試看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>看來你拿到光球了，我們快來試試看吧。</t>
+    <t>這邊有個小走道，我都鑽不過去...也許你可以?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +614,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -766,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -795,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -824,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -853,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -882,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -911,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -940,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -969,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
